--- a/data-raw/calculation_cost_blind.xlsx
+++ b/data-raw/calculation_cost_blind.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bart-janb/Documents/GitHub/cea-glaucoma-ai-screening/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96A15D52-2CD3-5549-9EE2-E8255D2DCA9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E20DC6B-1715-B14C-BFB0-3BAF29AA039D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="39440" windowHeight="22000" xr2:uid="{FD0EB534-D8A5-7F4D-B937-536B03C781C8}"/>
+    <workbookView xWindow="35520" yWindow="6340" windowWidth="32940" windowHeight="18000" xr2:uid="{FD0EB534-D8A5-7F4D-B937-536B03C781C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="93">
   <si>
     <t>Item</t>
   </si>
@@ -306,6 +306,15 @@
   </si>
   <si>
     <t>general_practitioner</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>blind</t>
   </si>
 </sst>
 </file>
@@ -318,7 +327,7 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -358,6 +367,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -417,7 +433,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -536,6 +552,9 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -851,10 +870,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BBF6794-EE34-4D45-909F-53AA53ED897A}">
-  <dimension ref="A1:AG41"/>
+  <dimension ref="A1:AH42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
@@ -870,28 +889,28 @@
     <col min="10" max="10" width="26.33203125" style="25" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.83203125" style="25" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.1640625" style="25" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.83203125" style="25"/>
-    <col min="14" max="14" width="18.33203125" style="25" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.5" style="25" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.33203125" style="25" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.6640625" style="25" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.33203125" style="25" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.6640625" style="25" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.1640625" style="25" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.1640625" style="25" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.83203125" style="25" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="22.83203125" style="25" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="21.1640625" style="25" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="25.33203125" style="25" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="23.83203125" style="25" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="30.5" style="25" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="30" style="25" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="20" style="25" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="22" style="25" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="10.83203125" style="25"/>
+    <col min="13" max="14" width="10.83203125" style="25"/>
+    <col min="15" max="15" width="18.33203125" style="25" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.5" style="25" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.33203125" style="25" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.33203125" style="25" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.1640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19.1640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.83203125" style="25" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="22.83203125" style="25" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="21.1640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="25.33203125" style="25" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="23.83203125" style="25" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="30.5" style="25" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="30" style="25" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="20" style="25" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="22" style="25" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="10.83203125" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -930,61 +949,64 @@
         <v>89</v>
       </c>
       <c r="N1" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="O1" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="O1" s="25" t="s">
+      <c r="P1" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="P1" s="25" t="s">
+      <c r="Q1" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="Q1" s="25" t="s">
+      <c r="R1" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="R1" s="25" t="s">
+      <c r="S1" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="S1" s="25" t="s">
+      <c r="T1" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="T1" s="25" t="s">
+      <c r="U1" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="U1" s="25" t="s">
+      <c r="V1" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="V1" s="25" t="s">
+      <c r="W1" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="W1" s="25" t="s">
+      <c r="X1" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="X1" s="25" t="s">
+      <c r="Y1" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="Y1" s="25" t="s">
+      <c r="Z1" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="Z1" s="25" t="s">
+      <c r="AA1" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="AA1" s="25" t="s">
+      <c r="AB1" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="AB1" s="25" t="s">
+      <c r="AC1" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="AC1" s="25" t="s">
+      <c r="AD1" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="AD1" s="25" t="s">
+      <c r="AE1" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="AE1" s="25"/>
       <c r="AF1" s="25"/>
       <c r="AG1" s="25"/>
-    </row>
-    <row r="2" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH1" s="25"/>
+    </row>
+    <row r="2" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>27</v>
       </c>
@@ -993,91 +1015,97 @@
       <c r="F2" s="6"/>
       <c r="G2" s="7"/>
       <c r="I2" s="6">
-        <f>SUM(I3:I11)</f>
-        <v>4289.2613387340343</v>
+        <f>SUM(I3:I12)</f>
+        <v>4443.1516521243475</v>
       </c>
       <c r="J2" s="6">
-        <f>SUM(J3:J11)</f>
-        <v>8578.5226774680687</v>
-      </c>
-      <c r="L2" s="28"/>
+        <f>SUM(J3:J12)</f>
+        <v>8733.262035996946</v>
+      </c>
+      <c r="L2" s="28" t="s">
+        <v>92</v>
+      </c>
       <c r="M2" s="30">
         <f>J3</f>
         <v>88.085917948717949</v>
       </c>
       <c r="N2" s="30">
         <f>J4</f>
-        <v>622.42324786324787</v>
+        <v>307.78062678062679</v>
       </c>
       <c r="O2" s="30">
         <f>J5</f>
-        <v>137.33070085470086</v>
+        <v>622.42324786324787</v>
       </c>
       <c r="P2" s="30">
         <f>J6</f>
-        <v>225.65228438383841</v>
+        <v>137.33070085470086</v>
       </c>
       <c r="Q2" s="30">
         <f>J7</f>
-        <v>118.75690656369446</v>
+        <v>225.65228438383841</v>
       </c>
       <c r="R2" s="30">
         <f>J8</f>
-        <v>4661.9720797720793</v>
+        <v>118.75690656369446</v>
       </c>
       <c r="S2" s="30">
         <f>J9</f>
-        <v>2470.3179487179486</v>
+        <v>4661.9720797720793</v>
       </c>
       <c r="T2" s="30">
         <f>J10</f>
-        <v>100.94232311209061</v>
+        <v>2470.3179487179486</v>
       </c>
       <c r="U2" s="30">
         <f>J11</f>
-        <v>153.04126825174825</v>
+        <v>100.94232311209061</v>
       </c>
       <c r="V2" s="30">
-        <f>J13</f>
-        <v>15.66</v>
+        <f>J12</f>
+        <v>0</v>
       </c>
       <c r="W2" s="30">
         <f>J14</f>
-        <v>19.413333333333334</v>
+        <v>27.42</v>
       </c>
       <c r="X2" s="30">
         <f>J15</f>
-        <v>1.9685470085470087</v>
+        <v>19.413333333333334</v>
       </c>
       <c r="Y2" s="30">
         <f>J16</f>
-        <v>1040.2323874643873</v>
+        <v>1.9685470085470087</v>
       </c>
       <c r="Z2" s="30">
         <f>J17</f>
-        <v>169.242849002849</v>
+        <v>1040.2323874643873</v>
       </c>
       <c r="AA2" s="30">
         <f>J18</f>
-        <v>707.99407407407409</v>
+        <v>169.242849002849</v>
       </c>
       <c r="AB2" s="30">
         <f>J19</f>
+        <v>707.99407407407409</v>
+      </c>
+      <c r="AC2" s="30">
+        <f>J20</f>
         <v>176.51646723646724</v>
-      </c>
-      <c r="AC2" s="30">
-        <f>J22</f>
-        <v>8349.3842837199918</v>
       </c>
       <c r="AD2" s="30">
         <f>J23</f>
-        <v>18705.32099253581</v>
-      </c>
-      <c r="AE2" s="28"/>
+        <v>8349.3842837199918</v>
+      </c>
+      <c r="AE2" s="30">
+        <f>J24</f>
+        <v>0</v>
+      </c>
       <c r="AF2" s="28"/>
       <c r="AG2" s="28"/>
-    </row>
-    <row r="3" spans="1:33" s="8" customFormat="1" ht="20" x14ac:dyDescent="0.2">
+      <c r="AH2" s="28"/>
+    </row>
+    <row r="3" spans="1:34" s="8" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>25</v>
       </c>
@@ -1109,7 +1137,7 @@
         <v>44.042958974358974</v>
       </c>
       <c r="J3" s="10">
-        <f t="shared" ref="J3:J4" si="0">I3*2</f>
+        <f t="shared" ref="J3:J5" si="0">I3*2</f>
         <v>88.085917948717949</v>
       </c>
       <c r="L3" s="25"/>
@@ -1134,41 +1162,39 @@
       <c r="AE3" s="25"/>
       <c r="AF3" s="25"/>
       <c r="AG3" s="25"/>
-    </row>
-    <row r="4" spans="1:33" s="13" customFormat="1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A4" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="14">
-        <v>697.15</v>
-      </c>
-      <c r="E4" s="14">
-        <v>644</v>
-      </c>
-      <c r="F4" s="14">
+      <c r="AH3" s="25"/>
+    </row>
+    <row r="4" spans="1:34" s="8" customFormat="1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="10">
+        <v>67.95</v>
+      </c>
+      <c r="E4" s="10">
+        <v>137.5</v>
+      </c>
+      <c r="F4" s="10">
         <f>E4</f>
-        <v>644</v>
-      </c>
-      <c r="G4" s="15">
-        <f>22/351</f>
-        <v>6.2678062678062682E-2</v>
-      </c>
-      <c r="H4" s="13">
-        <v>7.71</v>
-      </c>
-      <c r="I4" s="16">
+        <v>137.5</v>
+      </c>
+      <c r="G4" s="11">
+        <f>92/351</f>
+        <v>0.2621082621082621</v>
+      </c>
+      <c r="H4" s="8">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="I4" s="10">
         <f>F4*G4*H4</f>
-        <v>311.21162393162393</v>
-      </c>
-      <c r="J4" s="16">
+        <v>153.89031339031339</v>
+      </c>
+      <c r="J4" s="10">
         <f t="shared" si="0"/>
-        <v>622.42324786324787</v>
+        <v>307.78062678062679</v>
       </c>
       <c r="L4" s="25"/>
       <c r="M4" s="25"/>
@@ -1190,43 +1216,41 @@
       <c r="AC4" s="25"/>
       <c r="AD4" s="25"/>
       <c r="AE4" s="25"/>
-      <c r="AF4" s="25"/>
-      <c r="AG4" s="25"/>
-    </row>
-    <row r="5" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="10">
-        <v>41.56</v>
-      </c>
-      <c r="E5" s="10">
-        <v>39.89</v>
-      </c>
-      <c r="F5" s="10">
+    </row>
+    <row r="5" spans="1:34" s="13" customFormat="1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A5" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="14">
+        <v>697.15</v>
+      </c>
+      <c r="E5" s="14">
+        <v>644</v>
+      </c>
+      <c r="F5" s="14">
         <f>E5</f>
-        <v>39.89</v>
-      </c>
-      <c r="G5" s="11">
-        <f>57/351</f>
-        <v>0.1623931623931624</v>
-      </c>
-      <c r="H5" s="8">
-        <v>10.6</v>
-      </c>
-      <c r="I5" s="10">
-        <f t="shared" ref="I5:I7" si="1">F5*G5*H5</f>
-        <v>68.665350427350432</v>
-      </c>
-      <c r="J5" s="10">
-        <f>I5*2</f>
-        <v>137.33070085470086</v>
+        <v>644</v>
+      </c>
+      <c r="G5" s="15">
+        <f>22/351</f>
+        <v>6.2678062678062682E-2</v>
+      </c>
+      <c r="H5" s="13">
+        <v>7.71</v>
+      </c>
+      <c r="I5" s="16">
+        <f>F5*G5*H5</f>
+        <v>311.21162393162393</v>
+      </c>
+      <c r="J5" s="16">
+        <f t="shared" si="0"/>
+        <v>622.42324786324787</v>
       </c>
       <c r="L5" s="25"/>
       <c r="M5" s="25"/>
@@ -1250,10 +1274,11 @@
       <c r="AE5" s="25"/>
       <c r="AF5" s="25"/>
       <c r="AG5" s="25"/>
-    </row>
-    <row r="6" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH5" s="25"/>
+    </row>
+    <row r="6" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>16</v>
@@ -1262,27 +1287,29 @@
         <v>11</v>
       </c>
       <c r="D6" s="10">
-        <v>139.9</v>
-      </c>
-      <c r="E6" s="10"/>
+        <v>41.56</v>
+      </c>
+      <c r="E6" s="10">
+        <v>39.89</v>
+      </c>
       <c r="F6" s="10">
-        <f>D6*B36*H34</f>
-        <v>161.95140027548211</v>
+        <f>E6</f>
+        <v>39.89</v>
       </c>
       <c r="G6" s="11">
-        <f>39/351</f>
-        <v>0.1111111111111111</v>
+        <f>57/351</f>
+        <v>0.1623931623931624</v>
       </c>
       <c r="H6" s="8">
-        <v>6.27</v>
+        <v>10.6</v>
       </c>
       <c r="I6" s="10">
-        <f t="shared" si="1"/>
-        <v>112.8261421919192</v>
+        <f t="shared" ref="I6:I8" si="1">F6*G6*H6</f>
+        <v>68.665350427350432</v>
       </c>
       <c r="J6" s="10">
         <f>I6*2</f>
-        <v>225.65228438383841</v>
+        <v>137.33070085470086</v>
       </c>
       <c r="L6" s="25"/>
       <c r="M6" s="25"/>
@@ -1306,10 +1333,11 @@
       <c r="AE6" s="25"/>
       <c r="AF6" s="25"/>
       <c r="AG6" s="25"/>
-    </row>
-    <row r="7" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH6" s="25"/>
+    </row>
+    <row r="7" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>16</v>
@@ -1318,27 +1346,27 @@
         <v>11</v>
       </c>
       <c r="D7" s="10">
-        <v>70</v>
+        <v>139.9</v>
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="10">
-        <f>D7*B36*H34</f>
-        <v>81.033581267217642</v>
+        <f>D7*B37*H35</f>
+        <v>161.95140027548211</v>
       </c>
       <c r="G7" s="11">
-        <f>20/351</f>
-        <v>5.6980056980056981E-2</v>
+        <f>39/351</f>
+        <v>0.1111111111111111</v>
       </c>
       <c r="H7" s="8">
-        <v>12.86</v>
+        <v>6.27</v>
       </c>
       <c r="I7" s="10">
         <f t="shared" si="1"/>
-        <v>59.378453281847229</v>
+        <v>112.8261421919192</v>
       </c>
       <c r="J7" s="10">
-        <f t="shared" ref="J7:J11" si="2">I7*2</f>
-        <v>118.75690656369446</v>
+        <f>I7*2</f>
+        <v>225.65228438383841</v>
       </c>
       <c r="L7" s="25"/>
       <c r="M7" s="25"/>
@@ -1362,41 +1390,40 @@
       <c r="AE7" s="25"/>
       <c r="AF7" s="25"/>
       <c r="AG7" s="25"/>
-    </row>
-    <row r="8" spans="1:33" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="16">
-        <v>1510.8</v>
-      </c>
-      <c r="E8" s="16">
-        <v>2270</v>
-      </c>
-      <c r="F8" s="16">
-        <f>E8</f>
-        <v>2270</v>
-      </c>
-      <c r="G8" s="15">
-        <f>133/351</f>
-        <v>0.37891737891737892</v>
-      </c>
-      <c r="H8" s="13">
-        <v>2.71</v>
-      </c>
-      <c r="I8" s="16">
-        <f t="shared" ref="I8:I11" si="3">F8*G8*H8</f>
-        <v>2330.9860398860396</v>
-      </c>
-      <c r="J8" s="16">
-        <f t="shared" si="2"/>
-        <v>4661.9720797720793</v>
+      <c r="AH7" s="25"/>
+    </row>
+    <row r="8" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="10">
+        <v>70</v>
+      </c>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10">
+        <f>D8*B37*H35</f>
+        <v>81.033581267217642</v>
+      </c>
+      <c r="G8" s="11">
+        <f>20/351</f>
+        <v>5.6980056980056981E-2</v>
+      </c>
+      <c r="H8" s="8">
+        <v>12.86</v>
+      </c>
+      <c r="I8" s="10">
+        <f t="shared" si="1"/>
+        <v>59.378453281847229</v>
+      </c>
+      <c r="J8" s="10">
+        <f t="shared" ref="J8:J11" si="2">I8*2</f>
+        <v>118.75690656369446</v>
       </c>
       <c r="L8" s="25"/>
       <c r="M8" s="25"/>
@@ -1420,10 +1447,11 @@
       <c r="AE8" s="25"/>
       <c r="AF8" s="25"/>
       <c r="AG8" s="25"/>
-    </row>
-    <row r="9" spans="1:33" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH8" s="25"/>
+    </row>
+    <row r="9" spans="1:34" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" s="13" t="s">
         <v>17</v>
@@ -1432,29 +1460,29 @@
         <v>13</v>
       </c>
       <c r="D9" s="16">
-        <v>1732.33</v>
+        <v>1510.8</v>
       </c>
       <c r="E9" s="16">
-        <v>1530</v>
+        <v>2270</v>
       </c>
       <c r="F9" s="16">
         <f>E9</f>
-        <v>1530</v>
+        <v>2270</v>
       </c>
       <c r="G9" s="15">
-        <f>161/351</f>
-        <v>0.45868945868945871</v>
+        <f>133/351</f>
+        <v>0.37891737891737892</v>
       </c>
       <c r="H9" s="13">
-        <v>1.76</v>
+        <v>2.71</v>
       </c>
       <c r="I9" s="16">
-        <f t="shared" si="3"/>
-        <v>1235.1589743589743</v>
+        <f t="shared" ref="I9:I12" si="3">F9*G9*H9</f>
+        <v>2330.9860398860396</v>
       </c>
       <c r="J9" s="16">
         <f t="shared" si="2"/>
-        <v>2470.3179487179486</v>
+        <v>4661.9720797720793</v>
       </c>
       <c r="L9" s="25"/>
       <c r="M9" s="25"/>
@@ -1478,10 +1506,11 @@
       <c r="AE9" s="25"/>
       <c r="AF9" s="25"/>
       <c r="AG9" s="25"/>
-    </row>
-    <row r="10" spans="1:33" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH9" s="25"/>
+    </row>
+    <row r="10" spans="1:34" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" s="13" t="s">
         <v>17</v>
@@ -1490,29 +1519,30 @@
         <v>13</v>
       </c>
       <c r="D10" s="16">
-        <v>82.68</v>
-      </c>
-      <c r="E10" s="16"/>
+        <v>1732.33</v>
+      </c>
+      <c r="E10" s="16">
+        <v>1530</v>
+      </c>
       <c r="F10" s="16">
-        <f>D10*B36*H34</f>
-        <v>95.712235702479347</v>
+        <f>E10</f>
+        <v>1530</v>
       </c>
       <c r="G10" s="15">
-        <f>83/351</f>
-        <v>0.23646723646723647</v>
+        <f>161/351</f>
+        <v>0.45868945868945871</v>
       </c>
       <c r="H10" s="13">
-        <v>2.23</v>
+        <v>1.76</v>
       </c>
       <c r="I10" s="16">
         <f t="shared" si="3"/>
-        <v>50.471161556045303</v>
+        <v>1235.1589743589743</v>
       </c>
       <c r="J10" s="16">
         <f t="shared" si="2"/>
-        <v>100.94232311209061</v>
-      </c>
-      <c r="K10" s="18"/>
+        <v>2470.3179487179486</v>
+      </c>
       <c r="L10" s="25"/>
       <c r="M10" s="25"/>
       <c r="N10" s="25"/>
@@ -1535,10 +1565,11 @@
       <c r="AE10" s="25"/>
       <c r="AF10" s="25"/>
       <c r="AG10" s="25"/>
-    </row>
-    <row r="11" spans="1:33" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH10" s="25"/>
+    </row>
+    <row r="11" spans="1:34" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" s="13" t="s">
         <v>17</v>
@@ -1547,28 +1578,29 @@
         <v>13</v>
       </c>
       <c r="D11" s="16">
-        <v>276.20999999999998</v>
+        <v>82.68</v>
       </c>
       <c r="E11" s="16"/>
       <c r="F11" s="16">
-        <f>D11*B36*H34</f>
-        <v>319.74693545454545</v>
+        <f>D11*B37*H35</f>
+        <v>95.712235702479347</v>
       </c>
       <c r="G11" s="15">
-        <f>21/351</f>
-        <v>5.9829059829059832E-2</v>
+        <f>83/351</f>
+        <v>0.23646723646723647</v>
       </c>
       <c r="H11" s="13">
-        <v>4</v>
+        <v>2.23</v>
       </c>
       <c r="I11" s="16">
         <f t="shared" si="3"/>
-        <v>76.520634125874125</v>
+        <v>50.471161556045303</v>
       </c>
       <c r="J11" s="16">
         <f t="shared" si="2"/>
-        <v>153.04126825174825</v>
-      </c>
+        <v>100.94232311209061</v>
+      </c>
+      <c r="K11" s="18"/>
       <c r="L11" s="25"/>
       <c r="M11" s="25"/>
       <c r="N11" s="25"/>
@@ -1591,123 +1623,123 @@
       <c r="AE11" s="25"/>
       <c r="AF11" s="25"/>
       <c r="AG11" s="25"/>
-    </row>
-    <row r="12" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
+      <c r="AH11" s="25"/>
+    </row>
+    <row r="12" spans="1:34" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="16">
+        <v>276.20999999999998</v>
+      </c>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16">
+        <f>D12*B37*H35</f>
+        <v>319.74693545454545</v>
+      </c>
+      <c r="G12" s="15">
+        <f>21/351</f>
+        <v>5.9829059829059832E-2</v>
+      </c>
+      <c r="H12" s="13">
+        <v>4</v>
+      </c>
+      <c r="I12" s="16">
+        <f t="shared" si="3"/>
+        <v>76.520634125874125</v>
+      </c>
+      <c r="J12" s="16">
+        <v>0</v>
+      </c>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="25"/>
+      <c r="Q12" s="25"/>
+      <c r="R12" s="25"/>
+      <c r="S12" s="25"/>
+      <c r="T12" s="25"/>
+      <c r="U12" s="25"/>
+      <c r="V12" s="25"/>
+      <c r="W12" s="25"/>
+      <c r="X12" s="25"/>
+      <c r="Y12" s="25"/>
+      <c r="Z12" s="25"/>
+      <c r="AA12" s="25"/>
+      <c r="AB12" s="25"/>
+      <c r="AC12" s="25"/>
+      <c r="AD12" s="25"/>
+      <c r="AE12" s="25"/>
+      <c r="AF12" s="25"/>
+      <c r="AG12" s="25"/>
+      <c r="AH12" s="25"/>
+    </row>
+    <row r="13" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="7"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6">
-        <f>SUM(J13:J19)</f>
-        <v>2131.0276581196581</v>
-      </c>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="28"/>
-      <c r="P12" s="28"/>
-      <c r="Q12" s="28"/>
-      <c r="R12" s="28"/>
-      <c r="S12" s="28"/>
-      <c r="T12" s="28"/>
-      <c r="U12" s="28"/>
-      <c r="V12" s="28"/>
-      <c r="W12" s="28"/>
-      <c r="X12" s="28"/>
-      <c r="Y12" s="28"/>
-      <c r="Z12" s="28"/>
-      <c r="AA12" s="28"/>
-      <c r="AB12" s="28"/>
-      <c r="AC12" s="28"/>
-      <c r="AD12" s="28"/>
-      <c r="AE12" s="28"/>
-      <c r="AF12" s="28"/>
-      <c r="AG12" s="28"/>
-    </row>
-    <row r="13" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="7"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6">
+        <f>SUM(J14:J20)</f>
+        <v>2142.7876581196579</v>
+      </c>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="28"/>
+      <c r="Q13" s="28"/>
+      <c r="R13" s="28"/>
+      <c r="S13" s="28"/>
+      <c r="T13" s="28"/>
+      <c r="U13" s="28"/>
+      <c r="V13" s="28"/>
+      <c r="W13" s="28"/>
+      <c r="X13" s="28"/>
+      <c r="Y13" s="28"/>
+      <c r="Z13" s="28"/>
+      <c r="AA13" s="28"/>
+      <c r="AB13" s="28"/>
+      <c r="AC13" s="28"/>
+      <c r="AD13" s="28"/>
+      <c r="AE13" s="28"/>
+      <c r="AF13" s="28"/>
+      <c r="AG13" s="28"/>
+      <c r="AH13" s="28"/>
+    </row>
+    <row r="14" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B14" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C14" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D14" s="10">
         <v>15.66</v>
       </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="19"/>
-      <c r="I13" s="10">
-        <f>F13*G13*H13</f>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="19"/>
+      <c r="I14" s="10">
+        <f>F14*G14*H14</f>
         <v>0</v>
       </c>
-      <c r="J13" s="10">
-        <v>15.66</v>
-      </c>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="25"/>
-      <c r="O13" s="25"/>
-      <c r="P13" s="25"/>
-      <c r="Q13" s="25"/>
-      <c r="R13" s="25"/>
-      <c r="S13" s="25"/>
-      <c r="T13" s="25"/>
-      <c r="U13" s="25"/>
-      <c r="V13" s="25"/>
-      <c r="W13" s="25"/>
-      <c r="X13" s="25"/>
-      <c r="Y13" s="25"/>
-      <c r="Z13" s="25"/>
-      <c r="AA13" s="25"/>
-      <c r="AB13" s="25"/>
-      <c r="AC13" s="25"/>
-      <c r="AD13" s="25"/>
-      <c r="AE13" s="25"/>
-      <c r="AF13" s="25"/>
-      <c r="AG13" s="25"/>
-    </row>
-    <row r="14" spans="1:33" s="13" customFormat="1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A14" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="16">
-        <v>15.34</v>
-      </c>
-      <c r="E14" s="16">
-        <v>32.76</v>
-      </c>
-      <c r="F14" s="16">
-        <f t="shared" ref="F14:F19" si="4">E14</f>
-        <v>32.76</v>
-      </c>
-      <c r="G14" s="17">
-        <f>8/351</f>
-        <v>2.2792022792022793E-2</v>
-      </c>
-      <c r="H14" s="13">
-        <v>13</v>
-      </c>
-      <c r="I14" s="16">
-        <f t="shared" ref="I14:I15" si="5">F14*G14*H14</f>
-        <v>9.706666666666667</v>
-      </c>
-      <c r="J14" s="16">
-        <f t="shared" ref="J14:J19" si="6">I14*2</f>
-        <v>19.413333333333334</v>
+      <c r="J14" s="10">
+        <v>27.42</v>
       </c>
       <c r="L14" s="25"/>
       <c r="M14" s="25"/>
@@ -1731,41 +1763,42 @@
       <c r="AE14" s="25"/>
       <c r="AF14" s="25"/>
       <c r="AG14" s="25"/>
-    </row>
-    <row r="15" spans="1:33" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH14" s="25"/>
+    </row>
+    <row r="15" spans="1:34" s="13" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="12" t="s">
         <v>63</v>
       </c>
       <c r="C15" s="13" t="s">
         <v>15</v>
       </c>
       <c r="D15" s="16">
-        <v>37.51</v>
+        <v>15.34</v>
       </c>
       <c r="E15" s="16">
-        <v>57.58</v>
+        <v>32.76</v>
       </c>
       <c r="F15" s="16">
-        <f t="shared" si="4"/>
-        <v>57.58</v>
+        <f t="shared" ref="F15:F20" si="4">E15</f>
+        <v>32.76</v>
       </c>
       <c r="G15" s="17">
-        <f>4/351</f>
-        <v>1.1396011396011397E-2</v>
+        <f>8/351</f>
+        <v>2.2792022792022793E-2</v>
       </c>
       <c r="H15" s="13">
-        <v>1.5</v>
+        <v>13</v>
       </c>
       <c r="I15" s="16">
-        <f t="shared" si="5"/>
-        <v>0.98427350427350435</v>
+        <f t="shared" ref="I15:I16" si="5">F15*G15*H15</f>
+        <v>9.706666666666667</v>
       </c>
       <c r="J15" s="16">
-        <f t="shared" si="6"/>
-        <v>1.9685470085470087</v>
+        <f t="shared" ref="J15:J20" si="6">I15*2</f>
+        <v>19.413333333333334</v>
       </c>
       <c r="L15" s="25"/>
       <c r="M15" s="25"/>
@@ -1789,41 +1822,42 @@
       <c r="AE15" s="25"/>
       <c r="AF15" s="25"/>
       <c r="AG15" s="25"/>
-    </row>
-    <row r="16" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="10">
-        <v>12.29</v>
-      </c>
-      <c r="E16" s="10">
-        <v>18.8</v>
-      </c>
-      <c r="F16" s="10">
+      <c r="AH15" s="25"/>
+    </row>
+    <row r="16" spans="1:34" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="16">
+        <v>37.51</v>
+      </c>
+      <c r="E16" s="16">
+        <v>57.58</v>
+      </c>
+      <c r="F16" s="16">
         <f t="shared" si="4"/>
-        <v>18.8</v>
-      </c>
-      <c r="G16" s="11">
-        <f>158/351</f>
-        <v>0.45014245014245013</v>
-      </c>
-      <c r="H16" s="8">
-        <v>61.46</v>
-      </c>
-      <c r="I16" s="10">
-        <f t="shared" ref="I16:I19" si="7">F16*G16*H16</f>
-        <v>520.11619373219366</v>
-      </c>
-      <c r="J16" s="10">
+        <v>57.58</v>
+      </c>
+      <c r="G16" s="17">
+        <f>4/351</f>
+        <v>1.1396011396011397E-2</v>
+      </c>
+      <c r="H16" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="I16" s="16">
+        <f t="shared" si="5"/>
+        <v>0.98427350427350435</v>
+      </c>
+      <c r="J16" s="16">
         <f t="shared" si="6"/>
-        <v>1040.2323874643873</v>
+        <v>1.9685470085470087</v>
       </c>
       <c r="L16" s="25"/>
       <c r="M16" s="25"/>
@@ -1847,10 +1881,11 @@
       <c r="AE16" s="25"/>
       <c r="AF16" s="25"/>
       <c r="AG16" s="25"/>
-    </row>
-    <row r="17" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH16" s="25"/>
+    </row>
+    <row r="17" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>21</v>
@@ -1869,19 +1904,19 @@
         <v>18.8</v>
       </c>
       <c r="G17" s="11">
-        <f>35/351</f>
-        <v>9.9715099715099717E-2</v>
+        <f>158/351</f>
+        <v>0.45014245014245013</v>
       </c>
       <c r="H17" s="8">
-        <v>45.14</v>
+        <v>61.46</v>
       </c>
       <c r="I17" s="10">
-        <f t="shared" si="7"/>
-        <v>84.621424501424499</v>
+        <f t="shared" ref="I17:I20" si="7">F17*G17*H17</f>
+        <v>520.11619373219366</v>
       </c>
       <c r="J17" s="10">
         <f t="shared" si="6"/>
-        <v>169.242849002849</v>
+        <v>1040.2323874643873</v>
       </c>
       <c r="L17" s="25"/>
       <c r="M17" s="25"/>
@@ -1905,10 +1940,11 @@
       <c r="AE17" s="25"/>
       <c r="AF17" s="25"/>
       <c r="AG17" s="25"/>
-    </row>
-    <row r="18" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH17" s="25"/>
+    </row>
+    <row r="18" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>21</v>
@@ -1927,19 +1963,19 @@
         <v>18.8</v>
       </c>
       <c r="G18" s="11">
-        <f>124/351</f>
-        <v>0.35327635327635326</v>
+        <f>35/351</f>
+        <v>9.9715099715099717E-2</v>
       </c>
       <c r="H18" s="8">
-        <v>53.3</v>
+        <v>45.14</v>
       </c>
       <c r="I18" s="10">
         <f t="shared" si="7"/>
-        <v>353.99703703703705</v>
+        <v>84.621424501424499</v>
       </c>
       <c r="J18" s="10">
         <f t="shared" si="6"/>
-        <v>707.99407407407409</v>
+        <v>169.242849002849</v>
       </c>
       <c r="L18" s="25"/>
       <c r="M18" s="25"/>
@@ -1963,10 +1999,11 @@
       <c r="AE18" s="25"/>
       <c r="AF18" s="25"/>
       <c r="AG18" s="25"/>
-    </row>
-    <row r="19" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH18" s="25"/>
+    </row>
+    <row r="19" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>21</v>
@@ -1985,19 +2022,19 @@
         <v>18.8</v>
       </c>
       <c r="G19" s="11">
-        <f>110/351</f>
-        <v>0.31339031339031337</v>
+        <f>124/351</f>
+        <v>0.35327635327635326</v>
       </c>
       <c r="H19" s="8">
-        <v>14.98</v>
+        <v>53.3</v>
       </c>
       <c r="I19" s="10">
         <f t="shared" si="7"/>
-        <v>88.258233618233618</v>
+        <v>353.99703703703705</v>
       </c>
       <c r="J19" s="10">
         <f t="shared" si="6"/>
-        <v>176.51646723646724</v>
+        <v>707.99407407407409</v>
       </c>
       <c r="L19" s="25"/>
       <c r="M19" s="25"/>
@@ -2021,38 +2058,44 @@
       <c r="AE19" s="25"/>
       <c r="AF19" s="25"/>
       <c r="AG19" s="25"/>
-    </row>
-    <row r="20" spans="1:33" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K20" s="1"/>
-      <c r="L20" s="28"/>
+      <c r="AH19" s="25"/>
+    </row>
+    <row r="20" spans="1:34" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="10">
+        <v>12.29</v>
+      </c>
+      <c r="E20" s="10">
+        <v>18.8</v>
+      </c>
+      <c r="F20" s="10">
+        <f t="shared" si="4"/>
+        <v>18.8</v>
+      </c>
+      <c r="G20" s="11">
+        <f>110/351</f>
+        <v>0.31339031339031337</v>
+      </c>
+      <c r="H20" s="8">
+        <v>14.98</v>
+      </c>
+      <c r="I20" s="10">
+        <f t="shared" si="7"/>
+        <v>88.258233618233618</v>
+      </c>
+      <c r="J20" s="10">
+        <f t="shared" si="6"/>
+        <v>176.51646723646724</v>
+      </c>
+      <c r="L20" s="25"/>
       <c r="M20" s="25"/>
       <c r="N20" s="25"/>
       <c r="O20" s="25"/>
@@ -2074,73 +2117,101 @@
       <c r="AE20" s="25"/>
       <c r="AF20" s="25"/>
       <c r="AG20" s="25"/>
-    </row>
-    <row r="21" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
+      <c r="AH20" s="25"/>
+    </row>
+    <row r="21" spans="1:34" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K21" s="1"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="25"/>
+      <c r="O21" s="25"/>
+      <c r="P21" s="25"/>
+      <c r="Q21" s="25"/>
+      <c r="R21" s="25"/>
+      <c r="S21" s="25"/>
+      <c r="T21" s="25"/>
+      <c r="U21" s="25"/>
+      <c r="V21" s="25"/>
+      <c r="W21" s="25"/>
+      <c r="X21" s="25"/>
+      <c r="Y21" s="25"/>
+      <c r="Z21" s="25"/>
+      <c r="AA21" s="25"/>
+      <c r="AB21" s="25"/>
+      <c r="AC21" s="25"/>
+      <c r="AD21" s="25"/>
+      <c r="AE21" s="25"/>
+      <c r="AF21" s="25"/>
+      <c r="AG21" s="25"/>
+      <c r="AH21" s="25"/>
+    </row>
+    <row r="22" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="G21" s="7"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6">
-        <f>SUM(J22:J23)</f>
-        <v>27054.705276255801</v>
-      </c>
-      <c r="L21" s="28"/>
-      <c r="M21" s="28"/>
-      <c r="N21" s="28"/>
-      <c r="O21" s="28"/>
-      <c r="P21" s="28"/>
-      <c r="Q21" s="28"/>
-      <c r="R21" s="28"/>
-      <c r="S21" s="28"/>
-      <c r="T21" s="28"/>
-      <c r="U21" s="28"/>
-      <c r="V21" s="28"/>
-      <c r="W21" s="28"/>
-      <c r="X21" s="28"/>
-      <c r="Y21" s="28"/>
-      <c r="Z21" s="28"/>
-      <c r="AA21" s="28"/>
-      <c r="AB21" s="28"/>
-      <c r="AC21" s="28"/>
-      <c r="AD21" s="28"/>
-      <c r="AE21" s="28"/>
-      <c r="AF21" s="28"/>
-      <c r="AG21" s="28"/>
-    </row>
-    <row r="22" spans="1:33" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="21" t="s">
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="G22" s="7"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6">
+        <f>SUM(J23:J24)</f>
+        <v>8349.3842837199918</v>
+      </c>
+      <c r="L22" s="28"/>
+      <c r="M22" s="28"/>
+      <c r="N22" s="28"/>
+      <c r="O22" s="28"/>
+      <c r="P22" s="28"/>
+      <c r="Q22" s="28"/>
+      <c r="R22" s="28"/>
+      <c r="S22" s="28"/>
+      <c r="T22" s="28"/>
+      <c r="U22" s="28"/>
+      <c r="V22" s="28"/>
+      <c r="W22" s="28"/>
+      <c r="X22" s="28"/>
+      <c r="Y22" s="28"/>
+      <c r="Z22" s="28"/>
+      <c r="AA22" s="28"/>
+      <c r="AB22" s="28"/>
+      <c r="AC22" s="28"/>
+      <c r="AD22" s="28"/>
+      <c r="AE22" s="28"/>
+      <c r="AF22" s="28"/>
+      <c r="AG22" s="28"/>
+      <c r="AH22" s="28"/>
+    </row>
+    <row r="23" spans="1:34" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="21" t="s">
         <v>64</v>
-      </c>
-      <c r="B22" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="D22" s="22">
-        <v>99.14</v>
-      </c>
-      <c r="E22" s="22">
-        <v>39.880000000000003</v>
-      </c>
-      <c r="F22" s="24">
-        <f>2594.5272/D22</f>
-        <v>26.170336897316925</v>
-      </c>
-      <c r="G22" s="23"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22">
-        <f>F22*8*E22</f>
-        <v>8349.3842837199918</v>
-      </c>
-    </row>
-    <row r="23" spans="1:33" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="21" t="s">
-        <v>65</v>
       </c>
       <c r="B23" s="21" t="s">
         <v>38</v>
@@ -2155,172 +2226,199 @@
         <v>39.880000000000003</v>
       </c>
       <c r="F23" s="24">
-        <f>5812.58/D23</f>
-        <v>58.630018156142825</v>
-      </c>
-      <c r="G23" s="23">
-        <v>115</v>
-      </c>
+        <f>2594.5272/D23</f>
+        <v>26.170336897316925</v>
+      </c>
+      <c r="G23" s="23"/>
       <c r="H23" s="24"/>
       <c r="I23" s="22"/>
       <c r="J23" s="22">
         <f>F23*8*E23</f>
-        <v>18705.32099253581</v>
-      </c>
-    </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="H24" s="28"/>
-    </row>
-    <row r="26" spans="1:33" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="29" t="s">
+        <v>8349.3842837199918</v>
+      </c>
+    </row>
+    <row r="24" spans="1:34" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="22">
+        <v>99.14</v>
+      </c>
+      <c r="E24" s="22">
+        <v>39.880000000000003</v>
+      </c>
+      <c r="F24" s="24">
+        <f>5812.58/D24</f>
+        <v>58.630018156142825</v>
+      </c>
+      <c r="G24" s="23">
+        <v>115</v>
+      </c>
+      <c r="H24" s="24"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="H25" s="28"/>
+    </row>
+    <row r="27" spans="1:34" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="40"/>
-      <c r="J26" s="30"/>
-    </row>
-    <row r="27" spans="1:33" ht="20" x14ac:dyDescent="0.25">
-      <c r="A27" s="29" t="s">
+      <c r="D27" s="40"/>
+      <c r="J27" s="30"/>
+    </row>
+    <row r="28" spans="1:34" ht="20" x14ac:dyDescent="0.25">
+      <c r="A28" s="29" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:33" ht="20" x14ac:dyDescent="0.25">
-      <c r="A28" s="29" t="s">
+    <row r="29" spans="1:34" ht="20" x14ac:dyDescent="0.25">
+      <c r="A29" s="29" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A31" s="31" t="s">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A32" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="B31" s="31"/>
-      <c r="D31" s="32" t="s">
+      <c r="B32" s="31"/>
+      <c r="D32" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="31"/>
-    </row>
-    <row r="32" spans="1:33" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="34" t="s">
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="31"/>
+    </row>
+    <row r="33" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="B32" s="35">
+      <c r="B33" s="35">
         <v>1.2649999999999999</v>
       </c>
-      <c r="D32" s="36" t="s">
+      <c r="D33" s="36" t="s">
         <v>42</v>
-      </c>
-      <c r="E32" s="36"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="37"/>
-      <c r="H32" s="37">
-        <v>0.69399999999999995</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="B33" s="35">
-        <v>1.234</v>
-      </c>
-      <c r="D33" s="36" t="s">
-        <v>43</v>
       </c>
       <c r="E33" s="36"/>
       <c r="F33" s="36"/>
       <c r="G33" s="37"/>
-      <c r="H33" s="35">
-        <v>0.72599999999999998</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="35" t="s">
-        <v>56</v>
+      <c r="H33" s="37">
+        <v>0.69399999999999995</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="38" t="s">
+        <v>55</v>
       </c>
       <c r="B34" s="35">
-        <v>1.222</v>
-      </c>
-      <c r="D34" s="35" t="s">
-        <v>49</v>
+        <v>1.234</v>
+      </c>
+      <c r="D34" s="36" t="s">
+        <v>43</v>
       </c>
       <c r="E34" s="36"/>
       <c r="F34" s="36"/>
       <c r="G34" s="37"/>
       <c r="H34" s="35">
-        <f>H32/H33</f>
-        <v>0.9559228650137741</v>
+        <v>0.72599999999999998</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="35" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B35" s="35">
-        <v>1.214</v>
+        <v>1.222</v>
+      </c>
+      <c r="D35" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="35">
+        <f>H33/H34</f>
+        <v>0.9559228650137741</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="B36" s="39">
-        <v>1.2110000000000001</v>
+        <v>57</v>
+      </c>
+      <c r="B36" s="35">
+        <v>1.214</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="B37" s="35">
-        <v>1.194</v>
-      </c>
-      <c r="D37" s="26" t="s">
-        <v>51</v>
+        <v>58</v>
+      </c>
+      <c r="B37" s="39">
+        <v>1.2110000000000001</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="35" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B38" s="35">
-        <v>1.1739999999999999</v>
+        <v>1.194</v>
       </c>
       <c r="D38" s="26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="35" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B39" s="35">
-        <v>1.1439999999999999</v>
+        <v>1.1739999999999999</v>
       </c>
       <c r="D39" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="E39" s="26" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="35" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B40" s="35">
-        <v>1.1299999999999999</v>
+        <v>1.1439999999999999</v>
+      </c>
+      <c r="D40" s="26" t="s">
+        <v>53</v>
       </c>
       <c r="E40" s="26" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="B41" s="35">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="E41" s="26" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="B41" s="35">
+      <c r="B42" s="35">
         <v>1.1000000000000001</v>
       </c>
     </row>
